--- a/msg_data_per_month.xlsx
+++ b/msg_data_per_month.xlsx
@@ -2417,16 +2417,16 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>901</v>
+        <v>1429</v>
       </c>
       <c r="E74" t="n">
-        <v>33366</v>
+        <v>51919</v>
       </c>
       <c r="F74" t="n">
-        <v>37.03218645948946</v>
+        <v>36.33240027991602</v>
       </c>
       <c r="G74" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
@@ -2444,13 +2444,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1115</v>
+        <v>1823</v>
       </c>
       <c r="E75" t="n">
-        <v>42323</v>
+        <v>69102</v>
       </c>
       <c r="F75" t="n">
-        <v>37.95784753363229</v>
+        <v>37.90565002742732</v>
       </c>
       <c r="G75" t="n">
         <v>28</v>
